--- a/ad_hoc/defensive_value_analysis.xlsx
+++ b/ad_hoc/defensive_value_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connorreed/Dropbox/Desktop_Files/Work_Things/CodeBase/Python_Scripts/Python_Projects/NSBL/ad_hoc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A022BB4B-55AC-054E-A01E-9E545B6AEF07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E533DAC9-95E5-0948-9AB7-B57E1A3737C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29720" yWindow="660" windowWidth="27600" windowHeight="17040" xr2:uid="{04D333CC-FDC6-FD41-90F7-C3637EC35AA7}"/>
+    <workbookView xWindow="29780" yWindow="520" windowWidth="27600" windowHeight="17040" xr2:uid="{04D333CC-FDC6-FD41-90F7-C3637EC35AA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -183,7 +183,7 @@
     <t>where games_played &gt; 150</t>
   </si>
   <si>
-    <t>and year &gt; 2017</t>
+    <t>and year &gt;= 2017</t>
   </si>
 </sst>
 </file>
@@ -381,274 +381,274 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="451"/>
                 <c:pt idx="0">
-                  <c:v>0.61</c:v>
+                  <c:v>-1.63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.45</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.33</c:v>
+                  <c:v>-6.52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.73</c:v>
+                  <c:v>-3.27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.32</c:v>
+                  <c:v>-0.46</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.57</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7.24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.58</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.82</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.71</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.77</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.3899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.97</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.47</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-4.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-5.93</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.93</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2.99</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-4.72</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.96</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.74</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-4.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-5.88</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-2.02</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.2599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.19</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-2.06</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.52</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.36</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.44</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.83</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-7.01</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.31</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.84</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-4.6900000000000004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.4300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-1.1599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-1.3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.43</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-2.4300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.58</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.77</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-1.04</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-1.19</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.48</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.71</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-2.98</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-3.94</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.59</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-2.4700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-3.55</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-2.85</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>6.51</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2.5299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-6.02</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.96</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-1.51</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-1.24</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-1.48</c:v>
-                </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.55000000000000004</c:v>
+                  <c:v>-2.0699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>1.71</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.81</c:v>
+                  <c:v>1.24</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-3.81</c:v>
+                  <c:v>-3.64</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-1.8</c:v>
+                  <c:v>-3.59</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.27</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.08</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-3.54</c:v>
+                  <c:v>-3.87</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-3.3</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7.45</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.47</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-4.33</c:v>
+                  <c:v>-5.72</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-8.85</c:v>
+                  <c:v>-8.7799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.43</c:v>
+                  <c:v>1.83</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.25</c:v>
+                  <c:v>-1.03</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-3.91</c:v>
+                  <c:v>-4.41</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.84</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-2.36</c:v>
+                  <c:v>-3.35</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.1399999999999999</c:v>
+                  <c:v>-1.74</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-3.28</c:v>
+                  <c:v>-4.62</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-2.23</c:v>
+                  <c:v>-3.68</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.5</c:v>
+                  <c:v>3.07</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.64</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.46</c:v>
+                  <c:v>-1.22</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.37</c:v>
+                  <c:v>-2.0699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-2.61</c:v>
+                  <c:v>-2.79</c:v>
                 </c:pt>
                 <c:pt idx="73">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-1.88</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-3.04</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-6.64</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="79">
                   <c:v>2.29</c:v>
                 </c:pt>
-                <c:pt idx="74">
-                  <c:v>3.68</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-1.25</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-8.0399999999999991</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>6.65</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>4.9800000000000004</c:v>
-                </c:pt>
                 <c:pt idx="80">
-                  <c:v>-0.6</c:v>
+                  <c:v>-2.17</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.02</c:v>
+                  <c:v>-1.38</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6.42</c:v>
+                  <c:v>3.39</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.1</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.22</c:v>
+                  <c:v>-0.67</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-1.3</c:v>
+                  <c:v>-2.8</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9.02</c:v>
+                  <c:v>4.53</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.58</c:v>
+                  <c:v>-1.41</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-1.88</c:v>
+                  <c:v>-3.39</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-6.61</c:v>
+                  <c:v>-6.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -660,274 +660,274 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="451"/>
                 <c:pt idx="0">
-                  <c:v>-0.19</c:v>
+                  <c:v>-4.57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.04</c:v>
+                  <c:v>-9.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.42</c:v>
+                  <c:v>-7.85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.02</c:v>
+                  <c:v>-4.59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.08</c:v>
+                  <c:v>-1.28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>2.46</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.33</c:v>
+                  <c:v>8.0299999999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>-8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.77</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-8.33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.59</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-6.59</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.88</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.05</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-5.88</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.22</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-15.91</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4.05</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-9.31</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-6.45</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-9.69</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-9.1300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.29</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-4.37</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.82</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.38</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.26</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.5099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.24</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-4.5599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.68</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-5.83</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.84</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.5500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-12.22</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-10.61</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-4.3600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.19</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-5.52</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8.52</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.77</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-7.16</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-15.76</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>-3.72</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.61</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.48</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.25</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11.66</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-4.04</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.28</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.14</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.34</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.95</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10.02</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-2.3199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.45</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.32</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-1.58</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.33</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-11.52</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10.63</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.51</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-4.8</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-2.12</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-5.22</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-4.82</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>9.86</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>12.2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7.93</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4.04</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7.03</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6.14</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.23</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="61">
+                  <c:v>-2.13</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.64</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-4.6100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-7.89</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-6.05</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-4.92</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.47</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.59</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.26</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-10.28</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-1.57</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-5.95</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.59</c:v>
+                </c:pt>
+                <c:pt idx="79">
                   <c:v>-0.24</c:v>
                 </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.64</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-1.49</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.99</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5.89</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>7.34</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>14.02</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-7.82</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-6.21</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2.17</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>6.68</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-1.18</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>13.1</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>6.31</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-2.65</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-11.38</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2.29</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>11.14</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>5.41</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>8.91</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-3.51</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-1.53</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>4.46</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-0.41</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>8.94</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>10.16</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>4.2699999999999996</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>5.73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-5.78</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2.82</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>7.11</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-1.62</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>8.06</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>4.2699999999999996</c:v>
-                </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.87</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-1.05</c:v>
+                  <c:v>-5.45</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.01</c:v>
+                  <c:v>-0.33</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.96</c:v>
+                  <c:v>-0.35</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.77</c:v>
+                  <c:v>-0.69</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-0.76</c:v>
+                  <c:v>-5.12</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>15.53</c:v>
+                  <c:v>10.99</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.68</c:v>
+                  <c:v>-5.25</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-4.93</c:v>
+                  <c:v>-9.41</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-9.93</c:v>
+                  <c:v>-14.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2023,7 +2023,7 @@
   <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A2" sqref="A2:G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2068,19 +2068,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.61</v>
+        <v>-1.63</v>
       </c>
       <c r="D2">
-        <v>-0.19</v>
+        <v>-4.57</v>
       </c>
       <c r="E2">
-        <v>2.17</v>
+        <v>-2.2200000000000002</v>
       </c>
       <c r="F2">
-        <v>0.4</v>
+        <v>-3.98</v>
       </c>
       <c r="G2">
-        <v>2.76</v>
+        <v>-1.63</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2091,19 +2091,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>-1.45</v>
+        <v>-2</v>
       </c>
       <c r="D3">
-        <v>-5.04</v>
+        <v>-9.35</v>
       </c>
       <c r="E3">
-        <v>-2.08</v>
+        <v>-6.39</v>
       </c>
       <c r="F3">
-        <v>-5.5</v>
+        <v>-9.81</v>
       </c>
       <c r="G3">
-        <v>-2.54</v>
+        <v>-6.85</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2114,19 +2114,19 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>-6.33</v>
+        <v>-6.52</v>
       </c>
       <c r="D4">
-        <v>-3.42</v>
+        <v>-7.85</v>
       </c>
       <c r="E4">
-        <v>2.2999999999999998</v>
+        <v>-2.13</v>
       </c>
       <c r="F4">
-        <v>-2.98</v>
+        <v>-7.41</v>
       </c>
       <c r="G4">
-        <v>2.74</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2137,19 +2137,19 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>-1.73</v>
+        <v>-3.27</v>
       </c>
       <c r="D5">
-        <v>0.02</v>
+        <v>-4.59</v>
       </c>
       <c r="E5">
-        <v>2.95</v>
+        <v>-1.65</v>
       </c>
       <c r="F5">
-        <v>-2.81</v>
+        <v>-7.42</v>
       </c>
       <c r="G5">
-        <v>0.12</v>
+        <v>-4.4800000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2160,19 +2160,19 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.32</v>
+        <v>-0.46</v>
       </c>
       <c r="D6">
-        <v>3.08</v>
+        <v>-1.28</v>
       </c>
       <c r="E6">
-        <v>3.34</v>
+        <v>-1.01</v>
       </c>
       <c r="F6">
-        <v>6.49</v>
+        <v>2.13</v>
       </c>
       <c r="G6">
-        <v>6.75</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2183,19 +2183,19 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>-2</v>
+        <v>-3.5</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>2.46</v>
       </c>
       <c r="E7">
-        <v>8.85</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="F7">
-        <v>6.52</v>
+        <v>1.98</v>
       </c>
       <c r="G7">
-        <v>8.3699999999999992</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2206,19 +2206,19 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>-0.52</v>
+        <v>-1.57</v>
       </c>
       <c r="D8">
-        <v>12.33</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="E8">
-        <v>3.25</v>
+        <v>-1.06</v>
       </c>
       <c r="F8">
-        <v>6.02</v>
+        <v>1.72</v>
       </c>
       <c r="G8">
-        <v>-3.06</v>
+        <v>-7.37</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2229,19 +2229,19 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>-0.36</v>
+        <v>-2.0299999999999998</v>
       </c>
       <c r="D9">
-        <v>-3.72</v>
+        <v>-8.3000000000000007</v>
       </c>
       <c r="E9">
-        <v>0.56999999999999995</v>
+        <v>-4</v>
       </c>
       <c r="F9">
-        <v>-3.31</v>
+        <v>-7.89</v>
       </c>
       <c r="G9">
-        <v>0.98</v>
+        <v>-3.59</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2252,19 +2252,19 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>5.44</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D10">
-        <v>8.14</v>
+        <v>3.77</v>
       </c>
       <c r="E10">
-        <v>3.94</v>
+        <v>-0.43</v>
       </c>
       <c r="F10">
-        <v>9.51</v>
+        <v>5.14</v>
       </c>
       <c r="G10">
-        <v>5.31</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -2275,19 +2275,19 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>3.83</v>
+        <v>1.7</v>
       </c>
       <c r="D11">
-        <v>9.61</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E11">
-        <v>2.91</v>
+        <v>-1.6</v>
       </c>
       <c r="F11">
-        <v>12.25</v>
+        <v>7.74</v>
       </c>
       <c r="G11">
-        <v>5.55</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2298,19 +2298,19 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>-7.01</v>
+        <v>-7.24</v>
       </c>
       <c r="D12">
-        <v>2.48</v>
+        <v>-2.0299999999999998</v>
       </c>
       <c r="E12">
-        <v>4.82</v>
+        <v>0.32</v>
       </c>
       <c r="F12">
-        <v>-1.1299999999999999</v>
+        <v>-5.64</v>
       </c>
       <c r="G12">
-        <v>1.21</v>
+        <v>-3.29</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2321,19 +2321,19 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>-0.31</v>
+        <v>-1.64</v>
       </c>
       <c r="D13">
-        <v>5.25</v>
+        <v>0.76</v>
       </c>
       <c r="E13">
-        <v>5.0199999999999996</v>
+        <v>0.53</v>
       </c>
       <c r="F13">
-        <v>2.95</v>
+        <v>-1.54</v>
       </c>
       <c r="G13">
-        <v>2.72</v>
+        <v>-1.77</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2344,19 +2344,19 @@
         <v>27</v>
       </c>
       <c r="C14">
-        <v>1.25</v>
+        <v>-0.2</v>
       </c>
       <c r="D14">
-        <v>11.66</v>
+        <v>7.24</v>
       </c>
       <c r="E14">
-        <v>2.52</v>
+        <v>-1.9</v>
       </c>
       <c r="F14">
-        <v>10.39</v>
+        <v>5.97</v>
       </c>
       <c r="G14">
-        <v>1.25</v>
+        <v>-3.17</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2367,19 +2367,19 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>-0.84</v>
+        <v>-1.0900000000000001</v>
       </c>
       <c r="D15">
-        <v>-4.04</v>
+        <v>-8.33</v>
       </c>
       <c r="E15">
-        <v>0.5</v>
+        <v>-3.8</v>
       </c>
       <c r="F15">
-        <v>-6.26</v>
+        <v>-10.55</v>
       </c>
       <c r="G15">
-        <v>-1.72</v>
+        <v>-6.02</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2390,19 +2390,19 @@
         <v>29</v>
       </c>
       <c r="C16">
-        <v>-4.6900000000000004</v>
+        <v>-5.2</v>
       </c>
       <c r="D16">
-        <v>5.28</v>
+        <v>0.92</v>
       </c>
       <c r="E16">
-        <v>1.55</v>
+        <v>-2.81</v>
       </c>
       <c r="F16">
-        <v>1.1499999999999999</v>
+        <v>-3.21</v>
       </c>
       <c r="G16">
-        <v>-2.58</v>
+        <v>-6.94</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2413,19 +2413,19 @@
         <v>13</v>
       </c>
       <c r="C17">
-        <v>2.4300000000000002</v>
+        <v>0.22</v>
       </c>
       <c r="D17">
-        <v>2.14</v>
+        <v>-2.2200000000000002</v>
       </c>
       <c r="E17">
-        <v>1.08</v>
+        <v>-3.28</v>
       </c>
       <c r="F17">
-        <v>5.41</v>
+        <v>1.05</v>
       </c>
       <c r="G17">
-        <v>4.3499999999999996</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2436,19 +2436,19 @@
         <v>14</v>
       </c>
       <c r="C18">
-        <v>-1.1599999999999999</v>
+        <v>-2.58</v>
       </c>
       <c r="D18">
-        <v>6.34</v>
+        <v>1.87</v>
       </c>
       <c r="E18">
-        <v>8.3000000000000007</v>
+        <v>3.82</v>
       </c>
       <c r="F18">
-        <v>11.03</v>
+        <v>6.56</v>
       </c>
       <c r="G18">
-        <v>12.99</v>
+        <v>8.51</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -2459,19 +2459,19 @@
         <v>15</v>
       </c>
       <c r="C19">
-        <v>-1.3</v>
+        <v>-1.82</v>
       </c>
       <c r="D19">
-        <v>5.95</v>
+        <v>1.65</v>
       </c>
       <c r="E19">
-        <v>2.4500000000000002</v>
+        <v>-1.86</v>
       </c>
       <c r="F19">
-        <v>2.97</v>
+        <v>-1.33</v>
       </c>
       <c r="G19">
-        <v>-0.53</v>
+        <v>-4.84</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -2482,19 +2482,19 @@
         <v>16</v>
       </c>
       <c r="C20">
-        <v>1.18</v>
+        <v>-0.71</v>
       </c>
       <c r="D20">
-        <v>10.02</v>
+        <v>5.59</v>
       </c>
       <c r="E20">
-        <v>6.59</v>
+        <v>2.15</v>
       </c>
       <c r="F20">
-        <v>7.62</v>
+        <v>3.19</v>
       </c>
       <c r="G20">
-        <v>4.1900000000000004</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -2505,19 +2505,19 @@
         <v>17</v>
       </c>
       <c r="C21">
-        <v>4.43</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="D21">
-        <v>4.5</v>
+        <v>-0.01</v>
       </c>
       <c r="E21">
-        <v>3.46</v>
+        <v>-1.05</v>
       </c>
       <c r="F21">
-        <v>10.24</v>
+        <v>5.73</v>
       </c>
       <c r="G21">
-        <v>9.1999999999999993</v>
+        <v>4.6900000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2528,19 +2528,19 @@
         <v>18</v>
       </c>
       <c r="C22">
-        <v>-2.4300000000000002</v>
+        <v>-2.65</v>
       </c>
       <c r="D22">
-        <v>-2.3199999999999998</v>
+        <v>-6.59</v>
       </c>
       <c r="E22">
-        <v>-1.23</v>
+        <v>-5.5</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>-3.27</v>
       </c>
       <c r="G22">
-        <v>2.09</v>
+        <v>-2.1800000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -2551,19 +2551,19 @@
         <v>19</v>
       </c>
       <c r="C23">
-        <v>0.49</v>
+        <v>-1.77</v>
       </c>
       <c r="D23">
-        <v>1.45</v>
+        <v>-2.88</v>
       </c>
       <c r="E23">
-        <v>1.54</v>
+        <v>-2.79</v>
       </c>
       <c r="F23">
-        <v>10.53</v>
+        <v>6.2</v>
       </c>
       <c r="G23">
-        <v>10.62</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -2574,19 +2574,19 @@
         <v>20</v>
       </c>
       <c r="C24">
-        <v>7.58</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="D24">
-        <v>3.32</v>
+        <v>-1.05</v>
       </c>
       <c r="E24">
-        <v>-2.2000000000000002</v>
+        <v>-6.57</v>
       </c>
       <c r="F24">
-        <v>3.01</v>
+        <v>-1.36</v>
       </c>
       <c r="G24">
-        <v>-2.5099999999999998</v>
+        <v>-6.88</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -2597,19 +2597,19 @@
         <v>21</v>
       </c>
       <c r="C25">
-        <v>1.77</v>
+        <v>0.2</v>
       </c>
       <c r="D25">
-        <v>-1.58</v>
+        <v>-5.88</v>
       </c>
       <c r="E25">
-        <v>-0.21</v>
+        <v>-4.51</v>
       </c>
       <c r="F25">
-        <v>-6.2</v>
+        <v>-10.5</v>
       </c>
       <c r="G25">
-        <v>-4.83</v>
+        <v>-9.1300000000000008</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -2620,19 +2620,19 @@
         <v>22</v>
       </c>
       <c r="C26">
-        <v>-1.04</v>
+        <v>-2.29</v>
       </c>
       <c r="D26">
-        <v>3.33</v>
+        <v>-1.22</v>
       </c>
       <c r="E26">
-        <v>3.44</v>
+        <v>-1.1200000000000001</v>
       </c>
       <c r="F26">
-        <v>2.37</v>
+        <v>-2.1800000000000002</v>
       </c>
       <c r="G26">
-        <v>2.48</v>
+        <v>-2.08</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -2643,19 +2643,19 @@
         <v>23</v>
       </c>
       <c r="C27">
-        <v>-1.19</v>
+        <v>-1.97</v>
       </c>
       <c r="D27">
-        <v>-11.52</v>
+        <v>-15.91</v>
       </c>
       <c r="E27">
-        <v>-5.67</v>
+        <v>-10.06</v>
       </c>
       <c r="F27">
-        <v>-11.05</v>
+        <v>-15.44</v>
       </c>
       <c r="G27">
-        <v>-5.2</v>
+        <v>-9.59</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -2666,19 +2666,19 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>7.48</v>
+        <v>2.85</v>
       </c>
       <c r="D28">
-        <v>10.63</v>
+        <v>6</v>
       </c>
       <c r="E28">
-        <v>3.2</v>
+        <v>-1.43</v>
       </c>
       <c r="F28">
-        <v>7.35</v>
+        <v>2.72</v>
       </c>
       <c r="G28">
-        <v>-0.08</v>
+        <v>-4.71</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -2689,19 +2689,19 @@
         <v>24</v>
       </c>
       <c r="C29">
-        <v>2.71</v>
+        <v>-0.47</v>
       </c>
       <c r="D29">
-        <v>0.51</v>
+        <v>-4.05</v>
       </c>
       <c r="E29">
-        <v>2.77</v>
+        <v>-1.79</v>
       </c>
       <c r="F29">
-        <v>10.050000000000001</v>
+        <v>5.49</v>
       </c>
       <c r="G29">
-        <v>12.31</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -2712,19 +2712,19 @@
         <v>25</v>
       </c>
       <c r="C30">
-        <v>-2.98</v>
+        <v>-4.3</v>
       </c>
       <c r="D30">
-        <v>-4.8</v>
+        <v>-9.31</v>
       </c>
       <c r="E30">
-        <v>4.54</v>
+        <v>0.03</v>
       </c>
       <c r="F30">
-        <v>-6.71</v>
+        <v>-11.22</v>
       </c>
       <c r="G30">
-        <v>2.63</v>
+        <v>-1.88</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -2735,19 +2735,19 @@
         <v>26</v>
       </c>
       <c r="C31">
-        <v>0.11</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="D31">
-        <v>-2.12</v>
+        <v>-6.45</v>
       </c>
       <c r="E31">
-        <v>-5.47</v>
+        <v>-9.8000000000000007</v>
       </c>
       <c r="F31">
-        <v>-1.9</v>
+        <v>-6.23</v>
       </c>
       <c r="G31">
-        <v>-5.25</v>
+        <v>-9.58</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>-3.94</v>
+        <v>-5.93</v>
       </c>
       <c r="D32">
-        <v>-5.22</v>
+        <v>-9.69</v>
       </c>
       <c r="E32">
-        <v>1.9</v>
+        <v>-2.57</v>
       </c>
       <c r="F32">
-        <v>-5.71</v>
+        <v>-10.18</v>
       </c>
       <c r="G32">
-        <v>1.41</v>
+        <v>-3.06</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -2781,19 +2781,19 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>0.59</v>
+        <v>-0.93</v>
       </c>
       <c r="D33">
-        <v>-4.82</v>
+        <v>-9.1300000000000008</v>
       </c>
       <c r="E33">
-        <v>2.29</v>
+        <v>-2.0299999999999998</v>
       </c>
       <c r="F33">
-        <v>-2.2400000000000002</v>
+        <v>-6.55</v>
       </c>
       <c r="G33">
-        <v>4.87</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2804,19 +2804,19 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>-2.4700000000000002</v>
+        <v>-2.99</v>
       </c>
       <c r="D34">
-        <v>9.86</v>
+        <v>5.29</v>
       </c>
       <c r="E34">
-        <v>5.41</v>
+        <v>0.84</v>
       </c>
       <c r="F34">
-        <v>13.89</v>
+        <v>9.32</v>
       </c>
       <c r="G34">
-        <v>9.44</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -2827,19 +2827,19 @@
         <v>3</v>
       </c>
       <c r="C35">
-        <v>-3.55</v>
+        <v>-4.72</v>
       </c>
       <c r="D35">
-        <v>0.1</v>
+        <v>-4.37</v>
       </c>
       <c r="E35">
-        <v>7.1</v>
+        <v>2.63</v>
       </c>
       <c r="F35">
-        <v>-0.28999999999999998</v>
+        <v>-4.76</v>
       </c>
       <c r="G35">
-        <v>6.71</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -2850,19 +2850,19 @@
         <v>4</v>
       </c>
       <c r="C36">
-        <v>6.4</v>
+        <v>3.15</v>
       </c>
       <c r="D36">
-        <v>12.2</v>
+        <v>7.82</v>
       </c>
       <c r="E36">
-        <v>3.96</v>
+        <v>-0.42</v>
       </c>
       <c r="F36">
-        <v>9.73</v>
+        <v>5.35</v>
       </c>
       <c r="G36">
-        <v>1.49</v>
+        <v>-2.89</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -2873,19 +2873,19 @@
         <v>5</v>
       </c>
       <c r="C37">
-        <v>0.78</v>
+        <v>-1.96</v>
       </c>
       <c r="D37">
-        <v>7.93</v>
+        <v>3.38</v>
       </c>
       <c r="E37">
-        <v>4.42</v>
+        <v>-0.13</v>
       </c>
       <c r="F37">
-        <v>8.99</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="G37">
-        <v>5.48</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -2896,19 +2896,19 @@
         <v>6</v>
       </c>
       <c r="C38">
-        <v>0.35</v>
+        <v>-0.74</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>0.66</v>
       </c>
       <c r="E38">
-        <v>-1.57</v>
+        <v>-5.91</v>
       </c>
       <c r="F38">
-        <v>2.68</v>
+        <v>-1.66</v>
       </c>
       <c r="G38">
-        <v>-3.89</v>
+        <v>-8.23</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -2919,19 +2919,19 @@
         <v>7</v>
       </c>
       <c r="C39">
-        <v>-2.85</v>
+        <v>-4.38</v>
       </c>
       <c r="D39">
-        <v>3.37</v>
+        <v>-1.26</v>
       </c>
       <c r="E39">
-        <v>8.9700000000000006</v>
+        <v>4.34</v>
       </c>
       <c r="F39">
-        <v>-2.2200000000000002</v>
+        <v>-6.85</v>
       </c>
       <c r="G39">
-        <v>3.38</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -2942,19 +2942,19 @@
         <v>8</v>
       </c>
       <c r="C40">
-        <v>6.51</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="D40">
-        <v>4.04</v>
+        <v>-0.4</v>
       </c>
       <c r="E40">
-        <v>7.42</v>
+        <v>2.98</v>
       </c>
       <c r="F40">
-        <v>9.85</v>
+        <v>5.41</v>
       </c>
       <c r="G40">
-        <v>13.23</v>
+        <v>8.7899999999999991</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -2965,19 +2965,19 @@
         <v>9</v>
       </c>
       <c r="C41">
-        <v>2.5299999999999998</v>
+        <v>0.27</v>
       </c>
       <c r="D41">
-        <v>7.03</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="E41">
-        <v>8.57</v>
+        <v>4.05</v>
       </c>
       <c r="F41">
-        <v>12.07</v>
+        <v>7.55</v>
       </c>
       <c r="G41">
-        <v>13.61</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -2988,19 +2988,19 @@
         <v>10</v>
       </c>
       <c r="C42">
-        <v>-6.02</v>
+        <v>-5.88</v>
       </c>
       <c r="D42">
-        <v>6.14</v>
+        <v>1.62</v>
       </c>
       <c r="E42">
-        <v>2.4</v>
+        <v>-2.12</v>
       </c>
       <c r="F42">
-        <v>3.43</v>
+        <v>-1.0900000000000001</v>
       </c>
       <c r="G42">
-        <v>-0.31</v>
+        <v>-4.83</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -3011,19 +3011,19 @@
         <v>11</v>
       </c>
       <c r="C43">
-        <v>1.96</v>
+        <v>-0.49</v>
       </c>
       <c r="D43">
-        <v>3.23</v>
+        <v>-1.24</v>
       </c>
       <c r="E43">
-        <v>6.53</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="F43">
-        <v>2.95</v>
+        <v>-1.52</v>
       </c>
       <c r="G43">
-        <v>6.25</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -3034,19 +3034,19 @@
         <v>27</v>
       </c>
       <c r="C44">
-        <v>-1.51</v>
+        <v>-2.02</v>
       </c>
       <c r="D44">
-        <v>4.8</v>
+        <v>0.32</v>
       </c>
       <c r="E44">
-        <v>-1.54</v>
+        <v>-6.01</v>
       </c>
       <c r="F44">
-        <v>11.78</v>
+        <v>7.3</v>
       </c>
       <c r="G44">
-        <v>5.44</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -3057,19 +3057,19 @@
         <v>12</v>
       </c>
       <c r="C45">
-        <v>-1.24</v>
+        <v>-2.2599999999999998</v>
       </c>
       <c r="D45">
-        <v>-0.24</v>
+        <v>-4.5599999999999996</v>
       </c>
       <c r="E45">
-        <v>0.68</v>
+        <v>-3.65</v>
       </c>
       <c r="F45">
-        <v>-5.62</v>
+        <v>-9.94</v>
       </c>
       <c r="G45">
-        <v>-4.7</v>
+        <v>-9.0299999999999994</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -3080,19 +3080,19 @@
         <v>29</v>
       </c>
       <c r="C46">
-        <v>0.39</v>
+        <v>-1.19</v>
       </c>
       <c r="D46">
-        <v>3.64</v>
+        <v>-0.68</v>
       </c>
       <c r="E46">
-        <v>1.05</v>
+        <v>-3.27</v>
       </c>
       <c r="F46">
-        <v>3.72</v>
+        <v>-0.6</v>
       </c>
       <c r="G46">
-        <v>1.1299999999999999</v>
+        <v>-3.19</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -3103,19 +3103,19 @@
         <v>13</v>
       </c>
       <c r="C47">
-        <v>0.28999999999999998</v>
+        <v>-2.06</v>
       </c>
       <c r="D47">
-        <v>-1.49</v>
+        <v>-5.83</v>
       </c>
       <c r="E47">
-        <v>3.13</v>
+        <v>-1.21</v>
       </c>
       <c r="F47">
-        <v>-0.53</v>
+        <v>-4.87</v>
       </c>
       <c r="G47">
-        <v>4.09</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -3126,19 +3126,19 @@
         <v>14</v>
       </c>
       <c r="C48">
-        <v>-1.48</v>
+        <v>-2</v>
       </c>
       <c r="D48">
-        <v>1.99</v>
+        <v>-2.4500000000000002</v>
       </c>
       <c r="E48">
-        <v>1.46</v>
+        <v>-2.98</v>
       </c>
       <c r="F48">
-        <v>-5.74</v>
+        <v>-10.18</v>
       </c>
       <c r="G48">
-        <v>-6.27</v>
+        <v>-10.71</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -3149,19 +3149,19 @@
         <v>15</v>
       </c>
       <c r="C49">
-        <v>-0.55000000000000004</v>
+        <v>-2.0699999999999998</v>
       </c>
       <c r="D49">
-        <v>5.89</v>
+        <v>1.53</v>
       </c>
       <c r="E49">
-        <v>-4.04</v>
+        <v>-8.4</v>
       </c>
       <c r="F49">
-        <v>6.27</v>
+        <v>1.91</v>
       </c>
       <c r="G49">
-        <v>-3.66</v>
+        <v>-8.02</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -3172,19 +3172,19 @@
         <v>16</v>
       </c>
       <c r="C50">
-        <v>4.0999999999999996</v>
+        <v>1.71</v>
       </c>
       <c r="D50">
-        <v>7.34</v>
+        <v>2.84</v>
       </c>
       <c r="E50">
-        <v>2.25</v>
+        <v>-2.2400000000000002</v>
       </c>
       <c r="F50">
-        <v>6.07</v>
+        <v>1.57</v>
       </c>
       <c r="G50">
-        <v>0.98</v>
+        <v>-3.51</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -3195,19 +3195,19 @@
         <v>17</v>
       </c>
       <c r="C51">
-        <v>3.81</v>
+        <v>1.24</v>
       </c>
       <c r="D51">
-        <v>14.02</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="E51">
-        <v>5.98</v>
+        <v>1.5</v>
       </c>
       <c r="F51">
-        <v>11.66</v>
+        <v>7.19</v>
       </c>
       <c r="G51">
-        <v>3.62</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -3218,19 +3218,19 @@
         <v>18</v>
       </c>
       <c r="C52">
-        <v>-3.81</v>
+        <v>-3.64</v>
       </c>
       <c r="D52">
-        <v>-7.82</v>
+        <v>-12.22</v>
       </c>
       <c r="E52">
-        <v>-3.25</v>
+        <v>-7.64</v>
       </c>
       <c r="F52">
-        <v>-5.91</v>
+        <v>-10.31</v>
       </c>
       <c r="G52">
-        <v>-1.34</v>
+        <v>-5.73</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -3241,19 +3241,19 @@
         <v>19</v>
       </c>
       <c r="C53">
-        <v>-1.8</v>
+        <v>-3.59</v>
       </c>
       <c r="D53">
-        <v>-6.21</v>
+        <v>-10.61</v>
       </c>
       <c r="E53">
-        <v>-3.67</v>
+        <v>-8.06</v>
       </c>
       <c r="F53">
-        <v>-8.4600000000000009</v>
+        <v>-12.86</v>
       </c>
       <c r="G53">
-        <v>-5.92</v>
+        <v>-10.31</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -3264,19 +3264,19 @@
         <v>20</v>
       </c>
       <c r="C54">
-        <v>2.27</v>
+        <v>0.22</v>
       </c>
       <c r="D54">
-        <v>2.17</v>
+        <v>-2.2200000000000002</v>
       </c>
       <c r="E54">
-        <v>-4.1100000000000003</v>
+        <v>-8.5</v>
       </c>
       <c r="F54">
-        <v>3.57</v>
+        <v>-0.82</v>
       </c>
       <c r="G54">
-        <v>-2.71</v>
+        <v>-7.1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -3287,19 +3287,19 @@
         <v>21</v>
       </c>
       <c r="C55">
-        <v>2.08</v>
+        <v>0.33</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>-4.3600000000000003</v>
       </c>
       <c r="E55">
-        <v>1.92</v>
+        <v>-2.44</v>
       </c>
       <c r="F55">
-        <v>-0.35</v>
+        <v>-4.71</v>
       </c>
       <c r="G55">
-        <v>1.57</v>
+        <v>-2.79</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -3310,19 +3310,19 @@
         <v>22</v>
       </c>
       <c r="C56">
-        <v>-3.54</v>
+        <v>-3.87</v>
       </c>
       <c r="D56">
-        <v>6.68</v>
+        <v>2.19</v>
       </c>
       <c r="E56">
-        <v>8.4700000000000006</v>
+        <v>3.98</v>
       </c>
       <c r="F56">
-        <v>9.32</v>
+        <v>4.83</v>
       </c>
       <c r="G56">
-        <v>11.11</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -3333,19 +3333,19 @@
         <v>23</v>
       </c>
       <c r="C57">
-        <v>-3.3</v>
+        <v>-3</v>
       </c>
       <c r="D57">
-        <v>-1.18</v>
+        <v>-5.52</v>
       </c>
       <c r="E57">
-        <v>-2.73</v>
+        <v>-7.06</v>
       </c>
       <c r="F57">
-        <v>2.0099999999999998</v>
+        <v>-2.33</v>
       </c>
       <c r="G57">
-        <v>0.46</v>
+        <v>-3.87</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -3356,19 +3356,19 @@
         <v>28</v>
       </c>
       <c r="C58">
-        <v>7.45</v>
+        <v>3.2</v>
       </c>
       <c r="D58">
-        <v>13.1</v>
+        <v>8.52</v>
       </c>
       <c r="E58">
-        <v>4.29</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="F58">
-        <v>10.38</v>
+        <v>5.8</v>
       </c>
       <c r="G58">
-        <v>1.57</v>
+        <v>-3.01</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -3379,19 +3379,19 @@
         <v>24</v>
       </c>
       <c r="C59">
-        <v>4.47</v>
+        <v>1.6</v>
       </c>
       <c r="D59">
-        <v>6.31</v>
+        <v>1.77</v>
       </c>
       <c r="E59">
-        <v>5.81</v>
+        <v>1.28</v>
       </c>
       <c r="F59">
-        <v>7.06</v>
+        <v>2.52</v>
       </c>
       <c r="G59">
-        <v>6.56</v>
+        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -3402,19 +3402,19 @@
         <v>25</v>
       </c>
       <c r="C60">
-        <v>-4.33</v>
+        <v>-5.72</v>
       </c>
       <c r="D60">
-        <v>-2.65</v>
+        <v>-7.16</v>
       </c>
       <c r="E60">
-        <v>3.91</v>
+        <v>-0.6</v>
       </c>
       <c r="F60">
-        <v>-8.5399999999999991</v>
+        <v>-13.05</v>
       </c>
       <c r="G60">
-        <v>-1.98</v>
+        <v>-6.49</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -3425,19 +3425,19 @@
         <v>26</v>
       </c>
       <c r="C61">
-        <v>-8.85</v>
+        <v>-8.7799999999999994</v>
       </c>
       <c r="D61">
-        <v>-11.38</v>
+        <v>-15.76</v>
       </c>
       <c r="E61">
-        <v>-4.2</v>
+        <v>-8.58</v>
       </c>
       <c r="F61">
-        <v>-5.77</v>
+        <v>-10.15</v>
       </c>
       <c r="G61">
-        <v>1.41</v>
+        <v>-2.97</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -3448,19 +3448,19 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>5.43</v>
+        <v>1.83</v>
       </c>
       <c r="D62">
-        <v>0.67</v>
+        <v>-3.72</v>
       </c>
       <c r="E62">
-        <v>3.03</v>
+        <v>-1.36</v>
       </c>
       <c r="F62">
-        <v>-0.6</v>
+        <v>-4.99</v>
       </c>
       <c r="G62">
-        <v>1.76</v>
+        <v>-2.63</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -3471,19 +3471,19 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>0.25</v>
+        <v>-1.03</v>
       </c>
       <c r="D63">
-        <v>2.29</v>
+        <v>-2.13</v>
       </c>
       <c r="E63">
-        <v>3.14</v>
+        <v>-1.28</v>
       </c>
       <c r="F63">
-        <v>5.58</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="G63">
-        <v>6.43</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -3494,19 +3494,19 @@
         <v>2</v>
       </c>
       <c r="C64">
-        <v>-3.91</v>
+        <v>-4.41</v>
       </c>
       <c r="D64">
-        <v>11.14</v>
+        <v>6.64</v>
       </c>
       <c r="E64">
-        <v>6.91</v>
+        <v>2.41</v>
       </c>
       <c r="F64">
-        <v>13.9</v>
+        <v>9.4</v>
       </c>
       <c r="G64">
-        <v>9.67</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -3517,19 +3517,19 @@
         <v>3</v>
       </c>
       <c r="C65">
-        <v>3.84</v>
+        <v>0.92</v>
       </c>
       <c r="D65">
-        <v>5.41</v>
+        <v>0.91</v>
       </c>
       <c r="E65">
-        <v>5.97</v>
+        <v>1.48</v>
       </c>
       <c r="F65">
-        <v>9.2899999999999991</v>
+        <v>4.79</v>
       </c>
       <c r="G65">
-        <v>9.85</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -3540,19 +3540,19 @@
         <v>4</v>
       </c>
       <c r="C66">
-        <v>-2.36</v>
+        <v>-3.35</v>
       </c>
       <c r="D66">
-        <v>-0.28999999999999998</v>
+        <v>-4.6100000000000003</v>
       </c>
       <c r="E66">
-        <v>7.45</v>
+        <v>3.13</v>
       </c>
       <c r="F66">
-        <v>-0.3</v>
+        <v>-4.62</v>
       </c>
       <c r="G66">
-        <v>7.44</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -3563,19 +3563,19 @@
         <v>5</v>
       </c>
       <c r="C67">
-        <v>1.1399999999999999</v>
+        <v>-1.74</v>
       </c>
       <c r="D67">
-        <v>8.91</v>
+        <v>4.3</v>
       </c>
       <c r="E67">
-        <v>9.1999999999999993</v>
+        <v>4.59</v>
       </c>
       <c r="F67">
-        <v>6.11</v>
+        <v>1.5</v>
       </c>
       <c r="G67">
-        <v>6.4</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -3586,19 +3586,19 @@
         <v>6</v>
       </c>
       <c r="C68">
-        <v>-3.28</v>
+        <v>-4.62</v>
       </c>
       <c r="D68">
-        <v>-3.51</v>
+        <v>-7.89</v>
       </c>
       <c r="E68">
-        <v>2.5</v>
+        <v>-1.88</v>
       </c>
       <c r="F68">
-        <v>-3.87</v>
+        <v>-8.25</v>
       </c>
       <c r="G68">
-        <v>2.14</v>
+        <v>-2.2400000000000002</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -3609,19 +3609,19 @@
         <v>7</v>
       </c>
       <c r="C69">
-        <v>-2.23</v>
+        <v>-3.68</v>
       </c>
       <c r="D69">
-        <v>-1.53</v>
+        <v>-6.05</v>
       </c>
       <c r="E69">
-        <v>3.33</v>
+        <v>-1.19</v>
       </c>
       <c r="F69">
-        <v>1.84</v>
+        <v>-2.68</v>
       </c>
       <c r="G69">
-        <v>6.7</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -3632,19 +3632,19 @@
         <v>8</v>
       </c>
       <c r="C70">
-        <v>6.5</v>
+        <v>3.07</v>
       </c>
       <c r="D70">
-        <v>4.46</v>
+        <v>0.05</v>
       </c>
       <c r="E70">
-        <v>6.29</v>
+        <v>1.88</v>
       </c>
       <c r="F70">
-        <v>2.09</v>
+        <v>-2.3199999999999998</v>
       </c>
       <c r="G70">
-        <v>3.92</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -3655,19 +3655,19 @@
         <v>9</v>
       </c>
       <c r="C71">
-        <v>3.64</v>
+        <v>0.63</v>
       </c>
       <c r="D71">
-        <v>-0.41</v>
+        <v>-4.92</v>
       </c>
       <c r="E71">
-        <v>3.68</v>
+        <v>-0.82</v>
       </c>
       <c r="F71">
-        <v>3.66</v>
+        <v>-0.85</v>
       </c>
       <c r="G71">
-        <v>7.75</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -3678,19 +3678,19 @@
         <v>10</v>
       </c>
       <c r="C72">
-        <v>0.46</v>
+        <v>-1.22</v>
       </c>
       <c r="D72">
-        <v>8.94</v>
+        <v>4.47</v>
       </c>
       <c r="E72">
-        <v>5.72</v>
+        <v>1.26</v>
       </c>
       <c r="F72">
-        <v>5.13</v>
+        <v>0.66</v>
       </c>
       <c r="G72">
-        <v>1.91</v>
+        <v>-2.5499999999999998</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -3701,19 +3701,19 @@
         <v>11</v>
       </c>
       <c r="C73">
-        <v>0.37</v>
+        <v>-2.0699999999999998</v>
       </c>
       <c r="D73">
-        <v>10.16</v>
+        <v>5.59</v>
       </c>
       <c r="E73">
-        <v>5.39</v>
+        <v>0.82</v>
       </c>
       <c r="F73">
-        <v>10.37</v>
+        <v>5.8</v>
       </c>
       <c r="G73">
-        <v>5.6</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -3724,19 +3724,19 @@
         <v>27</v>
       </c>
       <c r="C74">
-        <v>-2.61</v>
+        <v>-2.79</v>
       </c>
       <c r="D74">
-        <v>4.2699999999999996</v>
+        <v>-0.26</v>
       </c>
       <c r="E74">
-        <v>3.96</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="F74">
-        <v>3.99</v>
+        <v>-0.54</v>
       </c>
       <c r="G74">
-        <v>3.68</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -3747,19 +3747,19 @@
         <v>12</v>
       </c>
       <c r="C75">
-        <v>2.29</v>
+        <v>-0.04</v>
       </c>
       <c r="D75">
-        <v>5.73</v>
+        <v>1.37</v>
       </c>
       <c r="E75">
-        <v>-2.21</v>
+        <v>-6.57</v>
       </c>
       <c r="F75">
-        <v>8.59</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="G75">
-        <v>0.65</v>
+        <v>-3.71</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -3770,19 +3770,19 @@
         <v>29</v>
       </c>
       <c r="C76">
-        <v>3.68</v>
+        <v>0.3</v>
       </c>
       <c r="D76">
-        <v>-5.78</v>
+        <v>-10.28</v>
       </c>
       <c r="E76">
-        <v>-1.31</v>
+        <v>-5.81</v>
       </c>
       <c r="F76">
-        <v>-9.6</v>
+        <v>-14.1</v>
       </c>
       <c r="G76">
-        <v>-5.13</v>
+        <v>-9.6300000000000008</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -3793,19 +3793,19 @@
         <v>13</v>
       </c>
       <c r="C77">
-        <v>0.19</v>
+        <v>-1.88</v>
       </c>
       <c r="D77">
-        <v>2.82</v>
+        <v>-1.57</v>
       </c>
       <c r="E77">
-        <v>4.8499999999999996</v>
+        <v>0.46</v>
       </c>
       <c r="F77">
-        <v>-1.3</v>
+        <v>-5.69</v>
       </c>
       <c r="G77">
-        <v>0.73</v>
+        <v>-3.66</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -3816,19 +3816,19 @@
         <v>14</v>
       </c>
       <c r="C78">
-        <v>-1.25</v>
+        <v>-3.04</v>
       </c>
       <c r="D78">
-        <v>7.11</v>
+        <v>2.6</v>
       </c>
       <c r="E78">
-        <v>1.5</v>
+        <v>-3.01</v>
       </c>
       <c r="F78">
-        <v>10.52</v>
+        <v>6.01</v>
       </c>
       <c r="G78">
-        <v>4.91</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -3839,19 +3839,19 @@
         <v>15</v>
       </c>
       <c r="C79">
-        <v>-8.0399999999999991</v>
+        <v>-6.64</v>
       </c>
       <c r="D79">
-        <v>-1.62</v>
+        <v>-5.95</v>
       </c>
       <c r="E79">
-        <v>1.73</v>
+        <v>-2.59</v>
       </c>
       <c r="F79">
-        <v>-1.76</v>
+        <v>-6.09</v>
       </c>
       <c r="G79">
-        <v>1.59</v>
+        <v>-2.73</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -3862,19 +3862,19 @@
         <v>16</v>
       </c>
       <c r="C80">
-        <v>6.65</v>
+        <v>3.15</v>
       </c>
       <c r="D80">
-        <v>8.06</v>
+        <v>3.59</v>
       </c>
       <c r="E80">
-        <v>1.3</v>
+        <v>-3.17</v>
       </c>
       <c r="F80">
-        <v>8.76</v>
+        <v>4.29</v>
       </c>
       <c r="G80">
-        <v>2</v>
+        <v>-2.4700000000000002</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -3885,19 +3885,19 @@
         <v>17</v>
       </c>
       <c r="C81">
-        <v>4.9800000000000004</v>
+        <v>2.29</v>
       </c>
       <c r="D81">
-        <v>4.2699999999999996</v>
+        <v>-0.24</v>
       </c>
       <c r="E81">
-        <v>1.42</v>
+        <v>-3.09</v>
       </c>
       <c r="F81">
-        <v>-0.69</v>
+        <v>-5.2</v>
       </c>
       <c r="G81">
-        <v>-3.54</v>
+        <v>-8.0500000000000007</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -3908,19 +3908,19 @@
         <v>18</v>
       </c>
       <c r="C82">
-        <v>-0.6</v>
+        <v>-2.17</v>
       </c>
       <c r="D82">
-        <v>2.87</v>
+        <v>-1.5</v>
       </c>
       <c r="E82">
-        <v>0.91</v>
+        <v>-3.46</v>
       </c>
       <c r="F82">
-        <v>2.19</v>
+        <v>-2.1800000000000002</v>
       </c>
       <c r="G82">
-        <v>0.23</v>
+        <v>-4.1399999999999997</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -3931,19 +3931,19 @@
         <v>19</v>
       </c>
       <c r="C83">
-        <v>1.02</v>
+        <v>-1.38</v>
       </c>
       <c r="D83">
-        <v>-1.05</v>
+        <v>-5.45</v>
       </c>
       <c r="E83">
-        <v>-3.19</v>
+        <v>-7.59</v>
       </c>
       <c r="F83">
-        <v>-5.8</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="G83">
-        <v>-7.94</v>
+        <v>-12.34</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -3954,19 +3954,19 @@
         <v>20</v>
       </c>
       <c r="C84">
-        <v>6.42</v>
+        <v>3.39</v>
       </c>
       <c r="D84">
-        <v>4.01</v>
+        <v>-0.33</v>
       </c>
       <c r="E84">
-        <v>-2.61</v>
+        <v>-6.94</v>
       </c>
       <c r="F84">
-        <v>3.58</v>
+        <v>-0.76</v>
       </c>
       <c r="G84">
-        <v>-3.04</v>
+        <v>-7.37</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -3977,19 +3977,19 @@
         <v>21</v>
       </c>
       <c r="C85">
-        <v>3.1</v>
+        <v>0.44</v>
       </c>
       <c r="D85">
-        <v>3.96</v>
+        <v>-0.35</v>
       </c>
       <c r="E85">
-        <v>-1.64</v>
+        <v>-5.95</v>
       </c>
       <c r="F85">
-        <v>3.87</v>
+        <v>-0.44</v>
       </c>
       <c r="G85">
-        <v>-1.73</v>
+        <v>-6.04</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -4000,19 +4000,19 @@
         <v>22</v>
       </c>
       <c r="C86">
-        <v>0.22</v>
+        <v>-0.67</v>
       </c>
       <c r="D86">
-        <v>3.77</v>
+        <v>-0.69</v>
       </c>
       <c r="E86">
-        <v>2.34</v>
+        <v>-2.11</v>
       </c>
       <c r="F86">
-        <v>10.7</v>
+        <v>6.24</v>
       </c>
       <c r="G86">
-        <v>9.27</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -4023,19 +4023,19 @@
         <v>23</v>
       </c>
       <c r="C87">
-        <v>-1.3</v>
+        <v>-2.8</v>
       </c>
       <c r="D87">
-        <v>-0.76</v>
+        <v>-5.12</v>
       </c>
       <c r="E87">
-        <v>-3.23</v>
+        <v>-7.6</v>
       </c>
       <c r="F87">
-        <v>0.98</v>
+        <v>-3.38</v>
       </c>
       <c r="G87">
-        <v>-1.49</v>
+        <v>-5.86</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -4046,19 +4046,19 @@
         <v>28</v>
       </c>
       <c r="C88">
-        <v>9.02</v>
+        <v>4.53</v>
       </c>
       <c r="D88">
-        <v>15.53</v>
+        <v>10.99</v>
       </c>
       <c r="E88">
-        <v>4.7699999999999996</v>
+        <v>0.23</v>
       </c>
       <c r="F88">
-        <v>7.46</v>
+        <v>2.92</v>
       </c>
       <c r="G88">
-        <v>-3.3</v>
+        <v>-7.84</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -4069,19 +4069,19 @@
         <v>24</v>
       </c>
       <c r="C89">
-        <v>1.58</v>
+        <v>-1.41</v>
       </c>
       <c r="D89">
-        <v>-0.68</v>
+        <v>-5.25</v>
       </c>
       <c r="E89">
-        <v>6.76</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="F89">
-        <v>-2.1</v>
+        <v>-6.67</v>
       </c>
       <c r="G89">
-        <v>5.34</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -4092,19 +4092,19 @@
         <v>25</v>
       </c>
       <c r="C90">
-        <v>-1.88</v>
+        <v>-3.39</v>
       </c>
       <c r="D90">
-        <v>-4.93</v>
+        <v>-9.41</v>
       </c>
       <c r="E90">
-        <v>0.84</v>
+        <v>-3.64</v>
       </c>
       <c r="F90">
-        <v>-0.49</v>
+        <v>-4.97</v>
       </c>
       <c r="G90">
-        <v>5.28</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -4115,25 +4115,25 @@
         <v>26</v>
       </c>
       <c r="C91">
-        <v>-6.61</v>
+        <v>-6.85</v>
       </c>
       <c r="D91">
-        <v>-9.93</v>
+        <v>-14.34</v>
       </c>
       <c r="E91">
-        <v>-2.29</v>
+        <v>-6.7</v>
       </c>
       <c r="F91">
-        <v>-8.32</v>
+        <v>-12.73</v>
       </c>
       <c r="G91">
-        <v>-0.68</v>
+        <v>-5.09</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{4238CC4D-7322-C94C-B525-45563CA130EB}">
-    <sortState ref="A2:G451">
-      <sortCondition descending="1" ref="C1:C451"/>
+    <sortState ref="A2:G91">
+      <sortCondition descending="1" ref="C1:C91"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4146,7 +4146,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4218,5 +4218,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>